--- a/Team-Data/2012-13/2-3-2012-13.xlsx
+++ b/Team-Data/2012-13/2-3-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
         <v>49.2</v>
@@ -866,37 +933,37 @@
         <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.336</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P3" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="R3" t="n">
         <v>8.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>39.5</v>
+        <v>39.8</v>
       </c>
       <c r="U3" t="n">
         <v>23.2</v>
@@ -908,7 +975,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
@@ -917,25 +984,25 @@
         <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="AC3" t="n">
         <v>-0.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -956,22 +1023,22 @@
         <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -986,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -995,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>10</v>
@@ -1132,10 +1199,10 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1344,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
@@ -1490,7 +1557,7 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1684,10 +1751,10 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2048,7 +2115,7 @@
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2066,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>0.375</v>
+        <v>0.383</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J10" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.446</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N10" t="n">
         <v>0.366</v>
       </c>
       <c r="O10" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P10" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q10" t="n">
         <v>0.695</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S10" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U10" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V10" t="n">
         <v>15.1</v>
@@ -2191,16 +2258,16 @@
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,13 +2279,13 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -2233,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2245,7 +2312,7 @@
         <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>8</v>
@@ -2266,16 +2333,16 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB10" t="n">
         <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
@@ -2397,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
@@ -2409,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2445,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2624,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2633,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
         <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.694</v>
+        <v>0.708</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2880,13 +2947,13 @@
         <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O14" t="n">
         <v>17.1</v>
       </c>
       <c r="P14" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.706</v>
@@ -2895,7 +2962,7 @@
         <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T14" t="n">
         <v>41.9</v>
@@ -2904,37 +2971,37 @@
         <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
         <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2943,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2955,16 +3022,16 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO14" t="n">
         <v>11</v>
       </c>
-      <c r="AN14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
-      </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
         <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>0.458</v>
+        <v>0.447</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3053,34 +3120,34 @@
         <v>81.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M15" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S15" t="n">
         <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U15" t="n">
         <v>22.3</v>
@@ -3089,7 +3156,7 @@
         <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
         <v>5.5</v>
@@ -3101,16 +3168,16 @@
         <v>18.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC15" t="n">
         <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3128,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3158,22 +3225,22 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
         <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3182,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3307,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
         <v>9</v>
@@ -3358,10 +3425,10 @@
         <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.674</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
@@ -3414,19 +3481,19 @@
         <v>38.5</v>
       </c>
       <c r="J17" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O17" t="n">
         <v>17.1</v>
@@ -3441,13 +3508,13 @@
         <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U17" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V17" t="n">
         <v>13.7</v>
@@ -3465,19 +3532,19 @@
         <v>19.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3504,10 +3571,10 @@
         <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3519,13 +3586,13 @@
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3540,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3686,7 +3753,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3701,7 +3768,7 @@
         <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
         <v>7</v>
@@ -3728,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3980,7 @@
         <v>21</v>
       </c>
       <c r="BC19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4275,7 @@
         <v>4</v>
       </c>
       <c r="AF21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG21" t="n">
         <v>5</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
         <v>19</v>
@@ -4271,7 +4338,7 @@
         <v>10</v>
       </c>
       <c r="BA21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4450,10 +4517,10 @@
         <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5130,7 +5197,7 @@
         <v>22</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>22</v>
@@ -5145,7 +5212,7 @@
         <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5394,7 @@
         <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -5580,85 +5647,85 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="n">
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O29" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P29" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R29" t="n">
         <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="V29" t="n">
         <v>12.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.8</v>
+        <v>-1.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5676,22 +5743,22 @@
         <v>18</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5721,20 +5788,20 @@
         <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC29" t="n">
         <v>18</v>
       </c>
-      <c r="BB29" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>21</v>
-      </c>
       <c r="BD29" t="n">
         <v>10</v>
       </c>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5876,7 +5943,7 @@
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6052,7 +6119,7 @@
         <v>17</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6085,7 +6152,7 @@
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-3-2012-13</t>
+          <t>2013-02-03</t>
         </is>
       </c>
     </row>
